--- a/sales_basic_conditional.xlsx
+++ b/sales_basic_conditional.xlsx
@@ -69,6 +69,15 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -6337,6 +6346,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:N101">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>$M1&lt;70000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>